--- a/BackTest/2020-01-21 BackTest TRX.xlsx
+++ b/BackTest/2020-01-21 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>705107.0146049799</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1232517.78710498</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2298429.43984767</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2298429.43984767</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2298429.43984767</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2298429.43984767</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2430144.51500595</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2430144.51500595</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2333950.29060595</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2386618.44200595</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2387843.11850595</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2247647.46470595</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>2247647.46470595</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2247647.46470595</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>2247647.46470595</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2247647.46470595</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3782135.5443046</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3877444.8135046</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-3966036.1444046</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-3964305.6445046</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-4045342.4219046</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-4274623.8710046</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-4300550.6057046</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-4300309.0803046</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-4325956.159579201</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-4318244.121479201</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-4322986.681479201</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-4322764.689998911</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-4343040.485598911</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-4342807.470736921</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-4347057.180736921</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-4268499.183389441</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-4268449.183389441</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-4268449.183389441</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-4278150.749189441</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-4372769.316441641</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-4493483.756241641</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-4631558.675141641</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-4631675.095141641</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-4631558.954040631</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-4631675.09514063</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-4631675.09514063</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-4631675.09514063</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-4806075.09514063</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-4752620.631240631</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4752620.631240631</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4617894.145707741</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5254973.218907742</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5254229.152807741</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-5241615.833681482</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5238805.833681482</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4485707.031681482</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4767362.695081482</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4382362.243681482</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4553947.384681483</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-5266404.435770962</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-5266404.435770962</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-5266404.435770962</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-5266404.435770962</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-5261665.099278073</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-5261665.099278073</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5249666.090578073</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5239739.839455932</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-6662143.274855931</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-7025214.892308481</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-6959802.163417982</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-7846471.933079222</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-7844489.527179223</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-7541844.901870533</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-7552356.692970533</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-7552296.692970533</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-7554845.842970533</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-7554480.374770533</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-7554480.374770533</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-7490963.266770533</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-7464824.911870534</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-7346312.911870534</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-7252283.266770533</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-7148419.227170534</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-7573192.205543654</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-7582594.547943654</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-7467006.494543655</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-7467006.494543655</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-7411747.532043654</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-7826044.633843654</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-7815309.644609643</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-7887599.242409643</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-7237001.789943652</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-7900819.115616762</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-8025005.711816762</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-8020150.377616761</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-7800536.981216761</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-8072478.031916762</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-8343627.263616762</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-8526683.515016763</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-8432496.544516763</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-8533405.690116761</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-8533265.285116762</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-8534594.201516762</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-8873394.621716762</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-9133244.957416762</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-9133244.957416762</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-9141869.957416762</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-8941869.957416762</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-8948964.613516761</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-8700791.127916761</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-8703526.47379877</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-8702064.08379877</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-8698400.47629877</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-8696660.27669877</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-8640416.08929877</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-8630271.06078078</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-8604768.19278078</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-8604949.17938078</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-10298550.30890604</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-10298550.30890604</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-10298550.30890604</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-10803323.63500604</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-11308435.41330604</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-11398531.65630604</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-11398531.65630604</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-11134652.66790604</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-11134652.66790604</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-11137842.56790604</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-11137842.56790604</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-11141041.16150604</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-11141041.16150604</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-11141041.16150604</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-11141041.16150604</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-11141041.16150604</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-11121123.87166439</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-11141479.81576439</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-11141479.81576439</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-11486266.33501822</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-11556750.16061822</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-11352470.92051822</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-12063167.77481822</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-12163553.02811822</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-12163853.02811822</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-11986506.08351822</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-11627215.59781822</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-11627215.59781822</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-684416752.0068511</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-684326930.238451</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-684043982.1259511</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-683743760.116451</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15730,14 +15730,10 @@
         <v>-683411989.7055969</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="J465" t="n">
-        <v>18.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
@@ -15770,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15809,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -24326,212 +24310,186 @@
         <v>-691603097.6059903</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C726" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="D726" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E726" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="F726" t="n">
+        <v>333.01178992</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-691602764.5942004</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C727" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="D727" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E727" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F727" t="n">
+        <v>75647.99770000001</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-691678412.5919003</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C728" t="n">
         <v>18.58</v>
       </c>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
+      <c r="D728" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E728" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="F728" t="n">
+        <v>231228.87417131</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-691447183.7177291</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C729" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D729" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E729" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F729" t="n">
+        <v>153713.4526</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-691293470.2651291</v>
+      </c>
+      <c r="H729" t="n">
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="J729" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C730" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="D730" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="E730" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="F730" t="n">
+        <v>6210</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-691299680.2651291</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>18.58</v>
+      </c>
+      <c r="K730" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="C726" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="D726" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="E726" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="F726" t="n">
-        <v>333.01178992</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-691602764.5942004</v>
-      </c>
-      <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C727" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="D727" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="E727" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F727" t="n">
-        <v>75647.99770000001</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-691678412.5919003</v>
-      </c>
-      <c r="H727" t="n">
-        <v>1</v>
-      </c>
-      <c r="I727" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C728" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D728" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="E728" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="F728" t="n">
-        <v>231228.87417131</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-691447183.7177291</v>
-      </c>
-      <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C729" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="D729" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="E729" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F729" t="n">
-        <v>153713.4526</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-691293470.2651291</v>
-      </c>
-      <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="C730" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="D730" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="E730" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="F730" t="n">
-        <v>6210</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-691299680.2651291</v>
-      </c>
-      <c r="H730" t="n">
-        <v>1</v>
-      </c>
-      <c r="I730" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24560,12 +24518,12 @@
         <v>-691257543.9710578</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="n">
         <v>18.58</v>
       </c>
-      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24599,12 +24557,12 @@
         <v>-691180716.0063004</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="J732" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24638,10 +24596,14 @@
         <v>-691149294.7681005</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="J733" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24678,7 +24640,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24715,7 +24679,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24749,10 +24715,14 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="J736" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24786,10 +24756,14 @@
         <v>-691149362.6222006</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="J737" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24826,7 +24800,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24863,7 +24839,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24900,7 +24878,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24937,7 +24917,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24974,7 +24956,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25011,7 +24995,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25048,7 +25034,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25085,7 +25073,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25122,7 +25112,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25159,7 +25151,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25196,7 +25190,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25233,7 +25229,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25270,7 +25268,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25307,7 +25307,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25344,7 +25346,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25381,7 +25385,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25418,7 +25424,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25455,7 +25463,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25492,7 +25502,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25529,7 +25541,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25563,12 +25577,12 @@
         <v>-694699174.68654</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="J758" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25605,7 +25619,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25642,7 +25658,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25679,7 +25697,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25716,7 +25736,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25750,12 +25772,12 @@
         <v>-695872080.05074</v>
       </c>
       <c r="H763" t="n">
-        <v>1</v>
-      </c>
-      <c r="I763" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="J763" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25789,12 +25811,12 @@
         <v>-696073660.68344</v>
       </c>
       <c r="H764" t="n">
-        <v>1</v>
-      </c>
-      <c r="I764" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="J764" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25833,7 +25855,9 @@
       <c r="I765" t="n">
         <v>18.43</v>
       </c>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25867,12 +25891,12 @@
         <v>-696346258.11304</v>
       </c>
       <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>18.42</v>
-      </c>
-      <c r="J766" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25906,12 +25930,12 @@
         <v>-696201496.0812399</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="J767" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25945,12 +25969,12 @@
         <v>-696240456.6464399</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>18.54</v>
-      </c>
-      <c r="J768" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25984,12 +26008,12 @@
         <v>-696149133.98434</v>
       </c>
       <c r="H769" t="n">
-        <v>1</v>
-      </c>
-      <c r="I769" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="J769" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26023,12 +26047,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H770" t="n">
-        <v>1</v>
-      </c>
-      <c r="I770" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="J770" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26062,12 +26086,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H771" t="n">
-        <v>1</v>
-      </c>
-      <c r="I771" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="J771" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26101,12 +26125,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H772" t="n">
-        <v>1</v>
-      </c>
-      <c r="I772" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="J772" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26140,12 +26164,12 @@
         <v>-696093763.3714399</v>
       </c>
       <c r="H773" t="n">
-        <v>1</v>
-      </c>
-      <c r="I773" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="J773" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26179,12 +26203,12 @@
         <v>-696072170.32704</v>
       </c>
       <c r="H774" t="n">
-        <v>1</v>
-      </c>
-      <c r="I774" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="J774" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26218,12 +26242,12 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H775" t="n">
-        <v>1</v>
-      </c>
-      <c r="I775" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="J775" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26257,19 +26281,19 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H776" t="n">
-        <v>1</v>
-      </c>
-      <c r="I776" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="J776" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>18.58</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L776" t="n">
-        <v>1</v>
+        <v>0.9993057050592035</v>
       </c>
       <c r="M776" t="inlineStr"/>
     </row>
@@ -26296,15 +26320,11 @@
         <v>-695868139.37484</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26333,15 +26353,11 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26370,15 +26386,11 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26411,11 +26423,7 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26448,11 +26456,7 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26485,11 +26489,7 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26522,11 +26522,7 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26559,11 +26555,7 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26596,11 +26588,7 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26633,11 +26621,7 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26670,11 +26654,7 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26707,11 +26687,7 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26744,11 +26720,7 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26781,11 +26753,7 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26818,11 +26786,7 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26855,11 +26819,7 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26892,11 +26852,7 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26929,11 +26885,7 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26966,11 +26918,7 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27003,11 +26951,7 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27040,11 +26984,7 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27077,11 +27017,7 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27114,11 +27050,7 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27151,11 +27083,7 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27188,11 +27116,7 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27225,11 +27149,7 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27262,11 +27182,7 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27299,11 +27215,7 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27336,11 +27248,7 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27373,11 +27281,7 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27410,11 +27314,7 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27447,11 +27347,7 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27484,11 +27380,7 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27521,11 +27413,7 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27558,11 +27446,7 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27591,17 +27475,11 @@
         <v>-695616194.1703037</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>18.87</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27630,17 +27508,11 @@
         <v>-695616194.1703037</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>18.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27669,17 +27541,11 @@
         <v>-695616194.1703037</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>18.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27708,17 +27574,11 @@
         <v>-695624449.7836037</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>18.91</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27747,17 +27607,11 @@
         <v>-695624449.7836037</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>18.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27786,17 +27640,11 @@
         <v>-695624449.7836037</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>18.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27825,17 +27673,11 @@
         <v>-695117569.2154037</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>18.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27864,17 +27706,11 @@
         <v>-695851557.7489036</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>18.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27903,23 +27739,17 @@
         <v>-695851557.7489036</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>18.88</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
       <c r="M820" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-21 BackTest TRX.xlsx
+++ b/BackTest/2020-01-21 BackTest TRX.xlsx
@@ -451,7 +451,7 @@
         <v>705107.0146049799</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>1285180.69390498</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>1232517.78710498</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2499348.97194767</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>2363482.09850595</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>2367597.38480595</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>2228299.11760595</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2399851.48582634</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2399651.48582634</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4617894.145707741</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5254973.218907742</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5254229.152807741</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-5241615.833681482</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5238805.833681482</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5228170.031681482</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4485707.031681482</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4945538.588781482</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4938200.048181482</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-4948493.624981482</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-4767362.695081482</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4382362.243681482</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4374330.261581482</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-4553947.384681483</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-5249666.090578073</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-5258609.493578073</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-5239739.839455932</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-5253708.844655932</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-5413168.865655932</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-5742827.767155931</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-6847271.324155931</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-6847271.324155931</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-6988416.791855931</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-7022740.050526472</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-6965068.092854522</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-6963430.953417982</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-7257568.711970533</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-7399639.520383294</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-7573192.205543654</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-7582594.547943654</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-7807964.236743654</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-7826044.633843654</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-7814100.127443654</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-7818149.324243654</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-7815309.644609643</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-7289853.515743652</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-7142605.116743652</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-7237001.789943652</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-7402108.681443652</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-7400719.681443652</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-7654562.305943652</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-6661904.097416762</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-6861209.324016762</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-7746810.979416762</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-7741731.610316762</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-7900819.115616762</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-8025005.711816762</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-8020150.377616761</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-7800536.981216761</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-8072478.031916762</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-8563210.096416762</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-8343843.847716762</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-8343627.263616762</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-8526683.515016763</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-8432496.544516763</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-8487736.155616762</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-8533405.690116761</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>-684416752.0068511</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>-684418396.445451</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>-684326930.238451</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>-684281906.854351</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>-684260538.466451</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>-684043982.1259511</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>-683743760.116451</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>-683629572.226251</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -24442,14 +24442,10 @@
         <v>-691293470.2651291</v>
       </c>
       <c r="H729" t="n">
-        <v>1</v>
-      </c>
-      <c r="I729" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="J729" t="n">
-        <v>18.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
@@ -24482,1346 +24478,1136 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K730" t="inlineStr">
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C731" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="D731" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="E731" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F731" t="n">
+        <v>42136.29407131</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-691257543.9710578</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="C732" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D732" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E732" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="F732" t="n">
+        <v>76827.96475738</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-691180716.0063004</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="C733" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D733" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="E733" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F733" t="n">
+        <v>31421.2382</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-691149294.7681005</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="C734" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D734" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="E734" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="F734" t="n">
+        <v>169.889</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-691149464.6571006</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="C735" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="D735" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="E735" t="n">
+        <v>18.64</v>
+      </c>
+      <c r="F735" t="n">
+        <v>19728.0777</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-691149464.6571006</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="C736" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D736" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="E736" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F736" t="n">
+        <v>102.0349</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-691149362.6222006</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="C737" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="D737" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="E737" t="n">
+        <v>18.69</v>
+      </c>
+      <c r="F737" t="n">
+        <v>74630</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-691149362.6222006</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C738" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="D738" t="n">
+        <v>18.78</v>
+      </c>
+      <c r="E738" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="F738" t="n">
+        <v>106141.5206</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-691043221.1016006</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="C739" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="D739" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="E739" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="F739" t="n">
+        <v>156581.95</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-690886639.1516006</v>
+      </c>
+      <c r="H739" t="n">
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C740" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D740" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E740" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="F740" t="n">
+        <v>15340.7455</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-690901979.8971006</v>
+      </c>
+      <c r="H740" t="n">
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="C741" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D741" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E741" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F741" t="n">
+        <v>212181.9576</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-691114161.8547006</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C742" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D742" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E742" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="F742" t="n">
+        <v>245143.3955</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-691359305.2502005</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C743" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D743" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E743" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F743" t="n">
+        <v>21613.4228</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-691380918.6730005</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C744" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="D744" t="n">
+        <v>18.73</v>
+      </c>
+      <c r="E744" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F744" t="n">
+        <v>206519.5158</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-691174399.1572005</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="C745" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D745" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E745" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="F745" t="n">
+        <v>75436.00092729001</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-691098963.1562731</v>
+      </c>
+      <c r="H745" t="n">
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="C746" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="D746" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="E746" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="F746" t="n">
+        <v>2646.689</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-691101609.8452731</v>
+      </c>
+      <c r="H746" t="n">
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="C747" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="D747" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="E747" t="n">
+        <v>18.76</v>
+      </c>
+      <c r="F747" t="n">
+        <v>7209.778</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-691094400.0672731</v>
+      </c>
+      <c r="H747" t="n">
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C748" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D748" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E748" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F748" t="n">
+        <v>26600.58666666</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-691121000.6539398</v>
+      </c>
+      <c r="H748" t="n">
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C749" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D749" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E749" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F749" t="n">
+        <v>151.5602</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-691121000.6539398</v>
+      </c>
+      <c r="H749" t="n">
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="C750" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="D750" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="E750" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="F750" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-691121000.6539398</v>
+      </c>
+      <c r="H750" t="n">
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C751" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="D751" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="E751" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F751" t="n">
+        <v>69999.9966</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-691191000.6505399</v>
+      </c>
+      <c r="H751" t="n">
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C752" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D752" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="E752" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="F752" t="n">
+        <v>11060</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-691179940.6505399</v>
+      </c>
+      <c r="H752" t="n">
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C753" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D753" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E753" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F753" t="n">
+        <v>9682.7106</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-691189623.3611399</v>
+      </c>
+      <c r="H753" t="n">
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="C754" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="D754" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="E754" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="F754" t="n">
+        <v>54269.7543</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-691189623.3611399</v>
+      </c>
+      <c r="H754" t="n">
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>18.67</v>
+      </c>
+      <c r="C755" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="D755" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="E755" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F755" t="n">
+        <v>139302.4825</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-691050320.8786399</v>
+      </c>
+      <c r="H755" t="n">
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="C756" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="D756" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="E756" t="n">
+        <v>18.63</v>
+      </c>
+      <c r="F756" t="n">
+        <v>66559.55740000001</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-690983761.3212399</v>
+      </c>
+      <c r="H756" t="n">
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C757" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="D757" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="E757" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="F757" t="n">
+        <v>3715413.3653</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-694699174.68654</v>
+      </c>
+      <c r="H757" t="n">
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C758" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="D758" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="E758" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="F758" t="n">
+        <v>50670.1101</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-694699174.68654</v>
+      </c>
+      <c r="H758" t="n">
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="C759" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="D759" t="n">
+        <v>18.62</v>
+      </c>
+      <c r="E759" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="F759" t="n">
+        <v>81713.6762</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-694780888.36274</v>
+      </c>
+      <c r="H759" t="n">
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="C760" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="D760" t="n">
+        <v>18.61</v>
+      </c>
+      <c r="E760" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="F760" t="n">
+        <v>1038039.4446</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-695818927.80734</v>
+      </c>
+      <c r="H760" t="n">
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="C761" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="D761" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="E761" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="F761" t="n">
+        <v>504888.5979</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-696323816.4052401</v>
+      </c>
+      <c r="H761" t="n">
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="C762" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="D762" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E762" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="F762" t="n">
+        <v>451736.3545</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-695872080.05074</v>
+      </c>
+      <c r="H762" t="n">
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>18.45</v>
+      </c>
+      <c r="C763" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="D763" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E763" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="F763" t="n">
+        <v>1996465.2849</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-695872080.05074</v>
+      </c>
+      <c r="H763" t="n">
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="C764" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="D764" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="E764" t="n">
+        <v>18.43</v>
+      </c>
+      <c r="F764" t="n">
+        <v>201580.6327</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-696073660.68344</v>
+      </c>
+      <c r="H764" t="n">
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>18.48</v>
+      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C731" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="D731" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="E731" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F731" t="n">
-        <v>42136.29407131</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-691257543.9710578</v>
-      </c>
-      <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C732" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="D732" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="E732" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F732" t="n">
-        <v>76827.96475738</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-691180716.0063004</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="C733" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D733" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="E733" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="F733" t="n">
-        <v>31421.2382</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-691149294.7681005</v>
-      </c>
-      <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="J733" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="C734" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="D734" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="E734" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="F734" t="n">
-        <v>169.889</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-691149464.6571006</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="C735" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="D735" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="E735" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="F735" t="n">
-        <v>19728.0777</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-691149464.6571006</v>
-      </c>
-      <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="C736" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D736" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="E736" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="F736" t="n">
-        <v>102.0349</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-691149362.6222006</v>
-      </c>
-      <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>18.64</v>
-      </c>
-      <c r="J736" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="C737" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="D737" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="E737" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="F737" t="n">
-        <v>74630</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-691149362.6222006</v>
-      </c>
-      <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>18.69</v>
-      </c>
-      <c r="J737" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="C738" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="D738" t="n">
-        <v>18.78</v>
-      </c>
-      <c r="E738" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F738" t="n">
-        <v>106141.5206</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-691043221.1016006</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="C739" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="D739" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="E739" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="F739" t="n">
-        <v>156581.95</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-690886639.1516006</v>
-      </c>
-      <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C740" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D740" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E740" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="F740" t="n">
-        <v>15340.7455</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-690901979.8971006</v>
-      </c>
-      <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>18.72</v>
-      </c>
-      <c r="C741" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D741" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E741" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F741" t="n">
-        <v>212181.9576</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-691114161.8547006</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C742" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D742" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E742" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="F742" t="n">
-        <v>245143.3955</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-691359305.2502005</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C743" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="D743" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E743" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F743" t="n">
-        <v>21613.4228</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-691380918.6730005</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C744" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="D744" t="n">
-        <v>18.73</v>
-      </c>
-      <c r="E744" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F744" t="n">
-        <v>206519.5158</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-691174399.1572005</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="C745" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D745" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E745" t="n">
-        <v>18.74</v>
-      </c>
-      <c r="F745" t="n">
-        <v>75436.00092729001</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-691098963.1562731</v>
-      </c>
-      <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L745" t="n">
-        <v>1</v>
-      </c>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="C746" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="D746" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="E746" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="F746" t="n">
-        <v>2646.689</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-691101609.8452731</v>
-      </c>
-      <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="C747" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="D747" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="E747" t="n">
-        <v>18.76</v>
-      </c>
-      <c r="F747" t="n">
-        <v>7209.778</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-691094400.0672731</v>
-      </c>
-      <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C748" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D748" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E748" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F748" t="n">
-        <v>26600.58666666</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-691121000.6539398</v>
-      </c>
-      <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C749" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D749" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E749" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F749" t="n">
-        <v>151.5602</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-691121000.6539398</v>
-      </c>
-      <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="C750" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="D750" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="E750" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F750" t="n">
-        <v>5400</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-691121000.6539398</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C751" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="D751" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="E751" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F751" t="n">
-        <v>69999.9966</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-691191000.6505399</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C752" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="D752" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="E752" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="F752" t="n">
-        <v>11060</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-691179940.6505399</v>
-      </c>
-      <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="C753" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D753" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E753" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F753" t="n">
-        <v>9682.7106</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-691189623.3611399</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="C754" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="D754" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E754" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="F754" t="n">
-        <v>54269.7543</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-691189623.3611399</v>
-      </c>
-      <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="C755" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="D755" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="E755" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="F755" t="n">
-        <v>139302.4825</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-691050320.8786399</v>
-      </c>
-      <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="C756" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="D756" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="E756" t="n">
-        <v>18.63</v>
-      </c>
-      <c r="F756" t="n">
-        <v>66559.55740000001</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-690983761.3212399</v>
-      </c>
-      <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="C757" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="D757" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="E757" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="F757" t="n">
-        <v>3715413.3653</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-694699174.68654</v>
-      </c>
-      <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="C758" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="D758" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="E758" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="F758" t="n">
-        <v>50670.1101</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-694699174.68654</v>
-      </c>
-      <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="C759" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="D759" t="n">
-        <v>18.62</v>
-      </c>
-      <c r="E759" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="F759" t="n">
-        <v>81713.6762</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-694780888.36274</v>
-      </c>
-      <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="C760" t="n">
-        <v>18.55</v>
-      </c>
-      <c r="D760" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="E760" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F760" t="n">
-        <v>1038039.4446</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-695818927.80734</v>
-      </c>
-      <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="C761" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="D761" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="E761" t="n">
-        <v>18.47</v>
-      </c>
-      <c r="F761" t="n">
-        <v>504888.5979</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-696323816.4052401</v>
-      </c>
-      <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="C762" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="D762" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="E762" t="n">
-        <v>18.46</v>
-      </c>
-      <c r="F762" t="n">
-        <v>451736.3545</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-695872080.05074</v>
-      </c>
-      <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>18.45</v>
-      </c>
-      <c r="C763" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="D763" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="E763" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="F763" t="n">
-        <v>1996465.2849</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-695872080.05074</v>
-      </c>
-      <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="C764" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="D764" t="n">
-        <v>18.48</v>
-      </c>
-      <c r="E764" t="n">
-        <v>18.43</v>
-      </c>
-      <c r="F764" t="n">
-        <v>201580.6327</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-696073660.68344</v>
-      </c>
-      <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25855,9 +25641,7 @@
       <c r="I765" t="n">
         <v>18.43</v>
       </c>
-      <c r="J765" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25891,12 +25675,12 @@
         <v>-696346258.11304</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>18.42</v>
+      </c>
+      <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25930,12 +25714,12 @@
         <v>-696201496.0812399</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="J767" t="inlineStr"/>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25969,12 +25753,12 @@
         <v>-696240456.6464399</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>18.54</v>
+      </c>
+      <c r="J768" t="inlineStr"/>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26008,12 +25792,12 @@
         <v>-696149133.98434</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="J769" t="inlineStr"/>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26047,12 +25831,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>18.55</v>
+      </c>
+      <c r="J770" t="inlineStr"/>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26086,12 +25870,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J771" t="inlineStr"/>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26125,12 +25909,12 @@
         <v>-696149291.8785399</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J772" t="inlineStr"/>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26164,12 +25948,12 @@
         <v>-696093763.3714399</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>18.46</v>
+      </c>
+      <c r="J773" t="inlineStr"/>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26203,12 +25987,12 @@
         <v>-696072170.32704</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>18.47</v>
+      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26242,12 +26026,12 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>18.58</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26281,19 +26065,17 @@
         <v>-695878535.62454</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>18.58</v>
-      </c>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L776" t="n">
-        <v>0.9993057050592035</v>
+        <v>1</v>
       </c>
       <c r="M776" t="inlineStr"/>
     </row>
@@ -26320,11 +26102,15 @@
         <v>-695868139.37484</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26353,11 +26139,17 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I778" t="n">
+        <v>18.68</v>
+      </c>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26386,11 +26178,15 @@
         <v>-695861337.90734</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26423,7 +26219,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26456,7 +26256,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26489,7 +26293,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26522,7 +26330,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26555,7 +26367,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26588,7 +26404,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26621,7 +26441,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26654,7 +26478,11 @@
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26687,7 +26515,11 @@
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26720,7 +26552,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26753,7 +26589,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26786,7 +26626,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26819,7 +26663,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26852,7 +26700,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26885,7 +26737,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26918,7 +26774,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26951,7 +26811,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26984,7 +26848,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27017,7 +26885,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27050,7 +26922,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27083,7 +26959,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27116,7 +26996,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27149,7 +27033,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27182,7 +27070,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27215,7 +27107,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -27248,7 +27144,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -27281,7 +27181,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27314,7 +27218,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27347,7 +27255,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27380,7 +27292,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27413,7 +27329,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27446,7 +27366,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27479,7 +27403,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27512,7 +27440,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27545,7 +27477,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27578,7 +27514,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27611,7 +27551,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27644,7 +27588,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27677,7 +27625,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27710,7 +27662,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27743,7 +27699,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
